--- a/Cronograma-2025.xlsx
+++ b/Cronograma-2025.xlsx
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="74" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1268,7 @@
     <col min="1" max="1" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="71.7109375" style="69" bestFit="1" customWidth="1"/>
